--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -67,13 +70,19 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
+    <t>special</t>
   </si>
   <si>
     <t>great</t>
@@ -85,78 +94,75 @@
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>important</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -170,9 +176,6 @@
   </si>
   <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -544,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7157534246575342</v>
+        <v>0.6541095890410958</v>
       </c>
       <c r="C5">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D5">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3825503355704698</v>
+        <v>0.36</v>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3372093023255814</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C7">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>342</v>
+        <v>98</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8414634146341463</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3015873015873016</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C8">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="D8">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8125</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1746031746031746</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1045576407506702</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,62 +976,86 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>0.8125</v>
+      </c>
+      <c r="L10">
+        <v>104</v>
+      </c>
+      <c r="M10">
+        <v>104</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>24</v>
       </c>
-      <c r="K10">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.08847184986595175</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>340</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
         <v>0.7931034482758621</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>46</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>46</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="J11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11">
-        <v>0.7872340425531915</v>
-      </c>
-      <c r="L11">
-        <v>37</v>
-      </c>
-      <c r="M11">
-        <v>37</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <v>0.775</v>
@@ -1054,16 +1081,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7676056338028169</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L13">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M13">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1075,21 +1102,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7619047619047619</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1101,21 +1128,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.75625</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L15">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1127,21 +1154,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7452830188679245</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L16">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M16">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1153,12 +1180,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17">
         <v>0.7254901960784313</v>
@@ -1184,16 +1211,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6595744680851063</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1205,21 +1232,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6458333333333334</v>
+        <v>0.675</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1231,21 +1258,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.62</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1257,21 +1284,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6135770234986945</v>
+        <v>0.6292428198433421</v>
       </c>
       <c r="L21">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M21">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1283,21 +1310,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6046511627906976</v>
+        <v>0.62</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1309,21 +1336,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5777777777777777</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1340,16 +1367,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5647058823529412</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1361,21 +1388,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5288135593220339</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L25">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1387,21 +1414,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4923076923076923</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1413,21 +1440,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.484375</v>
+        <v>0.535593220338983</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1439,21 +1466,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4719101123595505</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1465,21 +1492,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4560669456066946</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L29">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M29">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1491,47 +1518,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4487179487179487</v>
+        <v>0.453125</v>
       </c>
       <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>35</v>
-      </c>
-      <c r="M30">
-        <v>35</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.3972602739726027</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1548,16 +1575,16 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.3571428571428572</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1569,21 +1596,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.1052631578947368</v>
+        <v>0.4</v>
       </c>
       <c r="L33">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1595,21 +1622,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>374</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.0889423076923077</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1621,21 +1648,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.06152125279642058</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="L35">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1647,21 +1674,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>839</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.04328523862375139</v>
+        <v>0.06375838926174497</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1673,111 +1700,111 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>862</v>
+        <v>837</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.04314329738058552</v>
+        <v>0.05438401775804662</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>621</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.02998846597462514</v>
+        <v>0.04930662557781202</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>841</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.02897196261682243</v>
+        <v>0.02758298270219729</v>
       </c>
       <c r="L39">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M39">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2078</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.01805869074492099</v>
+        <v>0.01676337846550613</v>
       </c>
       <c r="L40">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M40">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N40">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O40">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>3045</v>
+        <v>3050</v>
       </c>
     </row>
   </sheetData>
